--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA17C7F-B09D-4554-AEFC-230C854CF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1CD46-5746-44DA-86AD-9DB281E444EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,21 +1197,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.7265625" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>2000020</v>
@@ -1688,9 +1688,11 @@
       <c r="F21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>7</v>
       </c>
@@ -2656,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>7</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>7</v>
       </c>
@@ -2909,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>7</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>7</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>7</v>
       </c>
@@ -3116,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>7</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>7</v>
       </c>
@@ -3300,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>7</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>7</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>7</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>7</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>7</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>7</v>
       </c>
@@ -3669,7 +3671,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G397">
+  <sortState ref="A2:G397">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1CD46-5746-44DA-86AD-9DB281E444EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7E856-6430-46AA-9D1D-B941B0076B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="78">
   <si>
     <t>lang_code</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>12/31/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -850,9 +853,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -867,9 +867,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1197,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,2421 +1250,2421 @@
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="b">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
         <v>2000002</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
         <v>45108</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="b">
-        <v>1</v>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
         <v>2000003</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9">
         <v>45139</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12" t="b">
-        <v>1</v>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
         <v>2000004</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="b">
-        <v>1</v>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
         <v>2000005</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12" t="b">
-        <v>1</v>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
         <v>2000006</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="b">
-        <v>1</v>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
         <v>2000007</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12" t="b">
-        <v>1</v>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
         <v>2000008</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12" t="b">
-        <v>1</v>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
         <v>2000009</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12" t="b">
-        <v>1</v>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
         <v>2000010</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9">
         <v>45018</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="12" t="b">
-        <v>1</v>
+      <c r="E11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
         <v>2000011</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9">
         <v>45048</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12" t="b">
-        <v>1</v>
+      <c r="E12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
         <v>2000012</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9">
         <v>45232</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12" t="b">
-        <v>1</v>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7">
         <v>2000013</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9">
         <v>45262</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12" t="b">
-        <v>1</v>
+      <c r="E14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
         <v>2000014</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="12" t="b">
-        <v>1</v>
+      <c r="G15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7">
         <v>2000015</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="12" t="b">
-        <v>1</v>
+      <c r="E16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7">
         <v>2000016</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12" t="b">
-        <v>1</v>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7">
         <v>2000017</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12" t="b">
-        <v>1</v>
+      <c r="E18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7">
         <v>2000018</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9">
         <v>45019</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12" t="b">
-        <v>1</v>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
         <v>2000019</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9">
         <v>45049</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="12" t="b">
-        <v>1</v>
+      <c r="E20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7">
         <v>2000020</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9">
         <v>45141</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="12" t="b">
-        <v>1</v>
+      <c r="G21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7">
         <v>2000021</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9">
         <v>45233</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12" t="b">
-        <v>1</v>
+      <c r="E22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
         <v>2000021</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9">
         <v>45263</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="12" t="b">
-        <v>1</v>
+      <c r="E23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
         <v>2000022</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="12" t="b">
-        <v>1</v>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7">
         <v>2000022</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="12" t="b">
-        <v>1</v>
+      <c r="E25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7">
         <v>2000023</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12" t="b">
-        <v>1</v>
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7">
         <v>2000023</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="12" t="b">
-        <v>1</v>
+      <c r="E27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="A28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7">
         <v>2000024</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="9">
         <v>44930</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="12" t="b">
-        <v>1</v>
+      <c r="E28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="A29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7">
         <v>2000024</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="9">
         <v>44961</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="12" t="b">
-        <v>1</v>
+      <c r="E29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7">
         <v>2000025</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="C30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="9">
         <v>45142</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="12" t="b">
-        <v>1</v>
+      <c r="E30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="A31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7">
         <v>2000025</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9">
         <v>45173</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="12" t="b">
-        <v>1</v>
+      <c r="E31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7">
         <v>2000026</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="12" t="b">
-        <v>1</v>
+      <c r="E32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7">
         <v>2000026</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="12" t="b">
-        <v>1</v>
+      <c r="E33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7">
         <v>2000027</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12" t="b">
-        <v>1</v>
+      <c r="E34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="8">
+      <c r="A35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7">
         <v>2000027</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="12" t="b">
-        <v>1</v>
+      <c r="E35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="7">
         <v>2000028</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="12" t="b">
-        <v>1</v>
+      <c r="E36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="7">
         <v>2000028</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="12" t="b">
-        <v>1</v>
+      <c r="E37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="8">
+      <c r="A38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7">
         <v>2000029</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="C38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="9">
         <v>45082</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="12" t="b">
-        <v>1</v>
+      <c r="E38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="7">
         <v>2000029</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="C39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="9">
         <v>45112</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="12" t="b">
-        <v>1</v>
+      <c r="E39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="7">
         <v>2000030</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="12" t="b">
-        <v>1</v>
+      <c r="E40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7">
         <v>2000030</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="12" t="b">
-        <v>1</v>
+      <c r="E41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="8">
+      <c r="A42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7">
         <v>2000031</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="12" t="b">
-        <v>1</v>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="8">
+      <c r="A43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7">
         <v>2000031</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="12" t="b">
-        <v>1</v>
+      <c r="E43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="8">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7">
         <v>2000032</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="12" t="b">
-        <v>1</v>
+      <c r="E44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="8">
+      <c r="A45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7">
         <v>2000032</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="12" t="b">
-        <v>1</v>
+      <c r="E45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="8">
+      <c r="A46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="7">
         <v>2000033</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="10">
+      <c r="C46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="9">
         <v>44991</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="12" t="b">
-        <v>1</v>
+      <c r="E46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="7">
         <v>2000033</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="C47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="9">
         <v>45022</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="12" t="b">
-        <v>1</v>
+      <c r="E47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="8">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7">
         <v>2000034</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="C48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="9">
         <v>45205</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="12" t="b">
-        <v>1</v>
+      <c r="E48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="8">
+      <c r="A49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="7">
         <v>2000034</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="C49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
         <v>45236</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="12" t="b">
-        <v>1</v>
+      <c r="E49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="8">
+      <c r="A50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7">
         <v>2000035</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="12" t="b">
-        <v>1</v>
+      <c r="E50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="A51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7">
         <v>2000035</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="12" t="b">
-        <v>1</v>
+      <c r="E51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="A52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7">
         <v>2000036</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="12" t="b">
-        <v>1</v>
+      <c r="E52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="A53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
         <v>2000036</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="12" t="b">
-        <v>1</v>
+      <c r="E53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="A54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7">
         <v>2000037</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="C54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9">
         <v>44933</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="12" t="b">
-        <v>1</v>
+      <c r="E54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="8">
+      <c r="A55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="7">
         <v>2000037</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="C55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="9">
         <v>44964</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="12" t="b">
-        <v>1</v>
+      <c r="E55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="8">
+      <c r="A56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7">
         <v>2000038</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="10">
+      <c r="C56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9">
         <v>45145</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="12" t="b">
-        <v>1</v>
+      <c r="E56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="8">
+      <c r="A57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="7">
         <v>2000038</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="C57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="9">
         <v>45176</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="12" t="b">
-        <v>1</v>
+      <c r="E57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="8">
+      <c r="A58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="7">
         <v>2000039</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="12" t="b">
-        <v>1</v>
+      <c r="E58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="8">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="7">
         <v>2000039</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="12" t="b">
-        <v>1</v>
+      <c r="E59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="8">
+      <c r="A60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="7">
         <v>2000040</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="12" t="b">
-        <v>1</v>
+      <c r="E60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="8">
+      <c r="A61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="7">
         <v>2000040</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="12" t="b">
-        <v>1</v>
+      <c r="E61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="8">
+      <c r="A62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="7">
         <v>2000041</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="12" t="b">
-        <v>1</v>
+      <c r="E62" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="8">
+      <c r="A63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="7">
         <v>2000041</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="12" t="b">
-        <v>1</v>
+      <c r="E63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="8">
+      <c r="A64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="7">
         <v>2000042</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="10">
+      <c r="C64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="9">
         <v>45054</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="12" t="b">
-        <v>1</v>
+      <c r="E64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="8">
+      <c r="A65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="7">
         <v>2000042</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="10">
+      <c r="C65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="9">
         <v>45085</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="12" t="b">
-        <v>1</v>
+      <c r="E65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="8">
+      <c r="A66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="7">
         <v>2000043</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="10">
+      <c r="C66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="9">
         <v>45268</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="12" t="b">
-        <v>1</v>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="8">
+      <c r="A67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="7">
         <v>2000043</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="12" t="b">
-        <v>1</v>
+      <c r="E67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="8">
+      <c r="A68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="7">
         <v>2000044</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="12" t="b">
-        <v>1</v>
+      <c r="E68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="8">
+      <c r="A69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="7">
         <v>2000044</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="C69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="12" t="b">
-        <v>1</v>
+      <c r="E69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="8">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="7">
         <v>2000045</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="C70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="12" t="b">
-        <v>1</v>
+      <c r="E70" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="8">
+      <c r="A71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="7">
         <v>2000045</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="12" t="b">
-        <v>1</v>
+      <c r="E71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="8">
+      <c r="A72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="7">
         <v>2000046</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="10">
+      <c r="C72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="9">
         <v>44966</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="12" t="b">
-        <v>1</v>
+      <c r="E72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="8">
+      <c r="A73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="7">
         <v>2000046</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="10">
+      <c r="C73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="9">
         <v>44994</v>
       </c>
-      <c r="E73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="12" t="b">
-        <v>1</v>
+      <c r="E73" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="8">
+      <c r="A74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="7">
         <v>2000047</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="C74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9">
         <v>45178</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="12" t="b">
-        <v>1</v>
+      <c r="E74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="8">
+      <c r="A75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="7">
         <v>2000047</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="10">
+      <c r="C75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="9">
         <v>45208</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="12" t="b">
-        <v>1</v>
+      <c r="E75" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="8">
+      <c r="A76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="7">
         <v>2000048</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="C76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="12" t="b">
-        <v>1</v>
+      <c r="E76" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="8">
+      <c r="A77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="7">
         <v>2000048</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="12" t="b">
-        <v>1</v>
+      <c r="E77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="8">
+      <c r="A78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="7">
         <v>2000049</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="C78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="12" t="b">
-        <v>1</v>
+      <c r="E78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="8">
+      <c r="A79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="7">
         <v>2000049</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="C79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="12" t="b">
-        <v>1</v>
+      <c r="E79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="8">
+      <c r="A80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="7">
         <v>2000050</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="12" t="b">
-        <v>1</v>
+      <c r="E80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="8">
+      <c r="A81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="7">
         <v>2000050</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="10">
+      <c r="C81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="9">
         <v>44936</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="12" t="b">
-        <v>1</v>
+      <c r="E81" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="8">
+      <c r="A82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="7">
         <v>2000051</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="10">
+      <c r="C82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="9">
         <v>45117</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="12" t="b">
-        <v>1</v>
+      <c r="E82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="8">
+      <c r="A83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="7">
         <v>2000051</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="10">
+      <c r="C83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="9">
         <v>45148</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="12" t="b">
-        <v>1</v>
+      <c r="E83" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="8">
+      <c r="A84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="7">
         <v>2000052</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="12" t="b">
-        <v>1</v>
+      <c r="E84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="8">
+      <c r="A85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="7">
         <v>2000052</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="C85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="12" t="b">
-        <v>1</v>
+      <c r="E85" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="8">
+      <c r="A86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="7">
         <v>2000053</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="C86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="12" t="b">
-        <v>1</v>
+      <c r="E86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="8">
+      <c r="A87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="7">
         <v>2000053</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="C87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="12" t="b">
-        <v>1</v>
+      <c r="E87" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="8">
+      <c r="A88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="7">
         <v>2000054</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="C88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="12" t="b">
-        <v>1</v>
+      <c r="E88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="8">
+      <c r="A89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="7">
         <v>2000054</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="12" t="b">
-        <v>1</v>
+      <c r="E89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="8">
+      <c r="A90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="7">
         <v>2000055</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="10">
+      <c r="C90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9">
         <v>45027</v>
       </c>
-      <c r="E90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="12" t="b">
-        <v>1</v>
+      <c r="E90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="8">
+      <c r="A91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="7">
         <v>2000055</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="10">
+      <c r="C91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="9">
         <v>45057</v>
       </c>
-      <c r="E91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="12" t="b">
-        <v>1</v>
+      <c r="E91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="8">
+      <c r="A92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="7">
         <v>2000056</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="10">
+      <c r="C92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="9">
         <v>45241</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="12" t="b">
-        <v>1</v>
+      <c r="E92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="8">
+      <c r="A93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="7">
         <v>2000056</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="10">
+      <c r="C93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="9">
         <v>45271</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="12" t="b">
-        <v>1</v>
+      <c r="E93" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="8">
+      <c r="A94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="7">
         <v>2000057</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="12" t="b">
-        <v>1</v>
+      <c r="E94" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="8">
+      <c r="A95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="7">
         <v>2000057</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="C95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="12" t="b">
-        <v>1</v>
+      <c r="E95" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="8">
+      <c r="A96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="7">
         <v>2000058</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="8" t="s">
+      <c r="C96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="12" t="b">
-        <v>1</v>
+      <c r="E96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="8">
+      <c r="A97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="7">
         <v>2000058</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="C97" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E97" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="12" t="b">
-        <v>1</v>
+      <c r="E97" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="8">
+      <c r="A98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="7">
         <v>2000059</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="10">
+      <c r="C98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="9">
         <v>44969</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="12" t="b">
-        <v>1</v>
+      <c r="E98" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="8">
+      <c r="A99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="7">
         <v>2000059</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="10">
+      <c r="C99" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="9">
         <v>44997</v>
       </c>
-      <c r="E99" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="12" t="b">
-        <v>1</v>
+      <c r="E99" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="8">
+      <c r="A100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="7">
         <v>2000060</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="10">
+      <c r="C100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="9">
         <v>45181</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="12" t="b">
-        <v>1</v>
+      <c r="E100" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="8">
+      <c r="A101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="7">
         <v>2000060</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="10">
+      <c r="C101" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="9">
         <v>45211</v>
       </c>
-      <c r="E101" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="12" t="b">
-        <v>1</v>
+      <c r="E101" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="8">
+      <c r="A102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="7">
         <v>2000061</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="C102" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E102" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="12" t="b">
-        <v>1</v>
+      <c r="E102" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="8">
+      <c r="A103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="7">
         <v>2000061</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="C103" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E103" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="12" t="b">
-        <v>1</v>
+      <c r="E103" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="8">
+      <c r="A104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="7">
         <v>2000062</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="C104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E104" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="12" t="b">
-        <v>1</v>
+      <c r="E104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="8">
+      <c r="A105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="7">
         <v>2000062</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="12" t="b">
-        <v>1</v>
+      <c r="E105" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" s="8">
+      <c r="A106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="7">
         <v>2000063</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="C106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="12" t="b">
-        <v>1</v>
+      <c r="E106" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="8">
+      <c r="A107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="7">
         <v>2000064</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="C107" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="12" t="b">
-        <v>1</v>
+      <c r="E107" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7E856-6430-46AA-9D1D-B941B0076B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6ED46F-B1A0-42D7-A7E6-D7FDBE30F032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="78">
   <si>
     <t>lang_code</t>
   </si>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1669,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="B21" s="7">
         <v>2000020</v>
       </c>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6ED46F-B1A0-42D7-A7E6-D7FDBE30F032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702703E-3122-4562-BC31-47FD2E8E2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="15">
   <si>
     <t>lang_code</t>
   </si>
@@ -69,199 +69,10 @@
     <t>SLE</t>
   </si>
   <si>
-    <t>1/14/2023</t>
-  </si>
-  <si>
-    <t>1/15/2023</t>
-  </si>
-  <si>
-    <t>1/21/2023</t>
-  </si>
-  <si>
-    <t>1/22/2023</t>
-  </si>
-  <si>
-    <t>1/28/2023</t>
-  </si>
-  <si>
-    <t>1/29/2023</t>
-  </si>
-  <si>
-    <t>2/18/2023</t>
-  </si>
-  <si>
     <t>Armed Forces Day</t>
   </si>
   <si>
-    <t>2/19/2023</t>
-  </si>
-  <si>
-    <t>2/25/2023</t>
-  </si>
-  <si>
-    <t>2/26/2023</t>
-  </si>
-  <si>
     <t>International Women's Day</t>
-  </si>
-  <si>
-    <t>3/18/2023</t>
-  </si>
-  <si>
-    <t>3/19/2023</t>
-  </si>
-  <si>
-    <t>3/25/2023</t>
-  </si>
-  <si>
-    <t>3/26/2023</t>
-  </si>
-  <si>
-    <t>4/15/2023</t>
-  </si>
-  <si>
-    <t>4/16/2023</t>
-  </si>
-  <si>
-    <t>4/22/2023</t>
-  </si>
-  <si>
-    <t>4/23/2023</t>
-  </si>
-  <si>
-    <t>4/29/2023</t>
-  </si>
-  <si>
-    <t>4/30/2023</t>
-  </si>
-  <si>
-    <t>5/13/2023</t>
-  </si>
-  <si>
-    <t>5/14/2023</t>
-  </si>
-  <si>
-    <t>5/20/2023</t>
-  </si>
-  <si>
-    <t>5/21/2023</t>
-  </si>
-  <si>
-    <t>5/27/2023</t>
-  </si>
-  <si>
-    <t>5/28/2023</t>
-  </si>
-  <si>
-    <t>6/17/2023</t>
-  </si>
-  <si>
-    <t>6/18/2023</t>
-  </si>
-  <si>
-    <t>6/24/2023</t>
-  </si>
-  <si>
-    <t>6/25/2023</t>
-  </si>
-  <si>
-    <t>7/15/2023</t>
-  </si>
-  <si>
-    <t>7/16/2023</t>
-  </si>
-  <si>
-    <t>7/22/2023</t>
-  </si>
-  <si>
-    <t>7/23/2023</t>
-  </si>
-  <si>
-    <t>7/29/2023</t>
-  </si>
-  <si>
-    <t>7/30/2023</t>
-  </si>
-  <si>
-    <t>8/13/2023</t>
-  </si>
-  <si>
-    <t>8/19/2023</t>
-  </si>
-  <si>
-    <t>8/20/2023</t>
-  </si>
-  <si>
-    <t>8/26/2023</t>
-  </si>
-  <si>
-    <t>8/27/2023</t>
-  </si>
-  <si>
-    <t>9/16/2023</t>
-  </si>
-  <si>
-    <t>9/17/2023</t>
-  </si>
-  <si>
-    <t>9/23/2023</t>
-  </si>
-  <si>
-    <t>9/24/2023</t>
-  </si>
-  <si>
-    <t>9/30/2023</t>
-  </si>
-  <si>
-    <t>10/14/2023</t>
-  </si>
-  <si>
-    <t>10/15/2023</t>
-  </si>
-  <si>
-    <t>10/21/2023</t>
-  </si>
-  <si>
-    <t>10/22/2023</t>
-  </si>
-  <si>
-    <t>10/28/2023</t>
-  </si>
-  <si>
-    <t>10/29/2023</t>
-  </si>
-  <si>
-    <t>11/18/2023</t>
-  </si>
-  <si>
-    <t>11/19/2023</t>
-  </si>
-  <si>
-    <t>11/25/2023</t>
-  </si>
-  <si>
-    <t>11/26/2023</t>
-  </si>
-  <si>
-    <t>12/16/2023</t>
-  </si>
-  <si>
-    <t>12/17/2023</t>
-  </si>
-  <si>
-    <t>12/23/2023</t>
-  </si>
-  <si>
-    <t>12/24/2023</t>
-  </si>
-  <si>
-    <t>12/30/2023</t>
-  </si>
-  <si>
-    <t>12/31/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true </t>
   </si>
 </sst>
 </file>
@@ -836,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,11 +658,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -868,8 +679,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1194,21 +1011,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="39.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="39.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1241,20 +1058,20 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="13">
         <v>44927</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="9">
-        <v>45108</v>
+        <v>44933</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>9</v>
@@ -1273,11 +1090,11 @@
       <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="9">
-        <v>45139</v>
+        <v>44934</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>11</v>
@@ -1296,11 +1113,11 @@
       <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1310,8 +1127,8 @@
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
+      <c r="D5" s="9">
+        <v>44940</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>9</v>
@@ -1319,11 +1136,11 @@
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1333,8 +1150,8 @@
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
+      <c r="D6" s="9">
+        <v>44941</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>11</v>
@@ -1342,11 +1159,11 @@
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1356,8 +1173,8 @@
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
+      <c r="D7" s="9">
+        <v>44947</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>9</v>
@@ -1365,11 +1182,11 @@
       <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1379,8 +1196,8 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
+      <c r="D8" s="9">
+        <v>44948</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>11</v>
@@ -1388,11 +1205,11 @@
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1402,8 +1219,8 @@
       <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
+      <c r="D9" s="9">
+        <v>44954</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>9</v>
@@ -1411,11 +1228,11 @@
       <c r="F9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1425,8 +1242,8 @@
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
+      <c r="D10" s="9">
+        <v>44955</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>11</v>
@@ -1434,11 +1251,11 @@
       <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="9">
-        <v>45018</v>
+        <v>44961</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>9</v>
@@ -1457,11 +1274,11 @@
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9">
-        <v>45048</v>
+        <v>44962</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>11</v>
@@ -1480,11 +1297,11 @@
       <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="9">
-        <v>45232</v>
+        <v>44968</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>9</v>
@@ -1503,11 +1320,11 @@
       <c r="F13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="9">
-        <v>45262</v>
+        <v>44969</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>11</v>
@@ -1526,11 +1343,11 @@
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -1540,20 +1357,20 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>20</v>
+      <c r="D15" s="9">
+        <v>44975</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -1563,8 +1380,8 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
+      <c r="D16" s="9">
+        <v>44976</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>11</v>
@@ -1572,11 +1389,11 @@
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1586,8 +1403,8 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
+      <c r="D17" s="9">
+        <v>44982</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>9</v>
@@ -1595,11 +1412,11 @@
       <c r="F17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1609,8 +1426,8 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>23</v>
+      <c r="D18" s="9">
+        <v>44983</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>11</v>
@@ -1618,11 +1435,11 @@
       <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="9">
-        <v>45019</v>
+        <v>44989</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>9</v>
@@ -1641,11 +1458,11 @@
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="9">
-        <v>45049</v>
+        <v>44990</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>11</v>
@@ -1664,14 +1481,12 @@
       <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="G20" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>2000020</v>
       </c>
@@ -1679,19 +1494,17 @@
         <v>12</v>
       </c>
       <c r="D21" s="9">
-        <v>45141</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>24</v>
+        <v>44993</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="9">
-        <v>45233</v>
+        <v>44996</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>9</v>
@@ -1710,11 +1523,11 @@
       <c r="F22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="9">
-        <v>45263</v>
+        <v>44997</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>11</v>
@@ -1733,11 +1546,11 @@
       <c r="F23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1747,8 +1560,8 @@
       <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>25</v>
+      <c r="D24" s="9">
+        <v>45003</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>9</v>
@@ -1756,11 +1569,11 @@
       <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,8 +1583,8 @@
       <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>26</v>
+      <c r="D25" s="9">
+        <v>45004</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>11</v>
@@ -1779,11 +1592,11 @@
       <c r="F25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1793,8 +1606,8 @@
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>27</v>
+      <c r="D26" s="9">
+        <v>45010</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>9</v>
@@ -1802,11 +1615,11 @@
       <c r="F26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1816,8 +1629,8 @@
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>28</v>
+      <c r="D27" s="9">
+        <v>45011</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>11</v>
@@ -1825,11 +1638,11 @@
       <c r="F27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="9">
-        <v>44930</v>
+        <v>45017</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>11</v>
@@ -1848,11 +1661,11 @@
       <c r="F28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1676,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="9">
-        <v>44961</v>
+        <v>45018</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>9</v>
@@ -1871,11 +1684,11 @@
       <c r="F29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="9">
-        <v>45142</v>
+        <v>45024</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>11</v>
@@ -1894,11 +1707,11 @@
       <c r="F30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
@@ -1909,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="9">
-        <v>45173</v>
+        <v>45025</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>9</v>
@@ -1917,11 +1730,11 @@
       <c r="F31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
@@ -1931,8 +1744,8 @@
       <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>29</v>
+      <c r="D32" s="9">
+        <v>45031</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>9</v>
@@ -1940,11 +1753,11 @@
       <c r="F32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
@@ -1954,8 +1767,8 @@
       <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>30</v>
+      <c r="D33" s="9">
+        <v>45032</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>11</v>
@@ -1963,11 +1776,11 @@
       <c r="F33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>7</v>
       </c>
@@ -1977,8 +1790,8 @@
       <c r="C34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>31</v>
+      <c r="D34" s="9">
+        <v>45038</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>9</v>
@@ -1986,11 +1799,11 @@
       <c r="F34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
@@ -2000,8 +1813,8 @@
       <c r="C35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>32</v>
+      <c r="D35" s="9">
+        <v>45039</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>11</v>
@@ -2009,11 +1822,11 @@
       <c r="F35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -2023,8 +1836,8 @@
       <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>33</v>
+      <c r="D36" s="9">
+        <v>45045</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>9</v>
@@ -2032,11 +1845,11 @@
       <c r="F36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -2046,8 +1859,8 @@
       <c r="C37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>34</v>
+      <c r="D37" s="9">
+        <v>45046</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>11</v>
@@ -2055,11 +1868,11 @@
       <c r="F37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="9">
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>9</v>
@@ -2078,11 +1891,11 @@
       <c r="F38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="9">
-        <v>45112</v>
+        <v>45053</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>11</v>
@@ -2101,11 +1914,11 @@
       <c r="F39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -2115,8 +1928,8 @@
       <c r="C40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>35</v>
+      <c r="D40" s="9">
+        <v>45059</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>9</v>
@@ -2124,11 +1937,11 @@
       <c r="F40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>7</v>
       </c>
@@ -2138,8 +1951,8 @@
       <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>36</v>
+      <c r="D41" s="9">
+        <v>45060</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>11</v>
@@ -2147,11 +1960,11 @@
       <c r="F41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>7</v>
       </c>
@@ -2161,8 +1974,8 @@
       <c r="C42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>37</v>
+      <c r="D42" s="9">
+        <v>45066</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>9</v>
@@ -2170,11 +1983,11 @@
       <c r="F42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
@@ -2184,8 +1997,8 @@
       <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>38</v>
+      <c r="D43" s="9">
+        <v>45067</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>11</v>
@@ -2193,11 +2006,11 @@
       <c r="F43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -2207,8 +2020,8 @@
       <c r="C44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>39</v>
+      <c r="D44" s="9">
+        <v>45073</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>9</v>
@@ -2216,11 +2029,11 @@
       <c r="F44" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
         <v>7</v>
       </c>
@@ -2230,8 +2043,8 @@
       <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>40</v>
+      <c r="D45" s="9">
+        <v>45074</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>11</v>
@@ -2239,11 +2052,11 @@
       <c r="F45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="9">
-        <v>44991</v>
+        <v>45080</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>9</v>
@@ -2262,11 +2075,11 @@
       <c r="F46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="9">
-        <v>45022</v>
+        <v>45081</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>11</v>
@@ -2285,11 +2098,11 @@
       <c r="F47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
@@ -2300,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="9">
-        <v>45205</v>
+        <v>45087</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>9</v>
@@ -2308,11 +2121,11 @@
       <c r="F48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>7</v>
       </c>
@@ -2323,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="9">
-        <v>45236</v>
+        <v>45088</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>11</v>
@@ -2331,11 +2144,11 @@
       <c r="F49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -2345,8 +2158,8 @@
       <c r="C50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>41</v>
+      <c r="D50" s="9">
+        <v>45094</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>9</v>
@@ -2354,11 +2167,11 @@
       <c r="F50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
@@ -2368,8 +2181,8 @@
       <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>42</v>
+      <c r="D51" s="9">
+        <v>45095</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>11</v>
@@ -2377,11 +2190,11 @@
       <c r="F51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -2391,8 +2204,8 @@
       <c r="C52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>43</v>
+      <c r="D52" s="9">
+        <v>45101</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>9</v>
@@ -2400,11 +2213,11 @@
       <c r="F52" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
@@ -2414,8 +2227,8 @@
       <c r="C53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>44</v>
+      <c r="D53" s="9">
+        <v>45102</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>11</v>
@@ -2423,11 +2236,11 @@
       <c r="F53" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="9">
-        <v>44933</v>
+        <v>45108</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>9</v>
@@ -2446,11 +2259,11 @@
       <c r="F54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="9">
-        <v>44964</v>
+        <v>45109</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>11</v>
@@ -2469,11 +2282,11 @@
       <c r="F55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="9">
-        <v>45145</v>
+        <v>45115</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>9</v>
@@ -2492,11 +2305,11 @@
       <c r="F56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="9">
-        <v>45176</v>
+        <v>45116</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>11</v>
@@ -2515,11 +2328,11 @@
       <c r="F57" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -2529,8 +2342,8 @@
       <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>45</v>
+      <c r="D58" s="9">
+        <v>45122</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>9</v>
@@ -2538,11 +2351,11 @@
       <c r="F58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
@@ -2552,8 +2365,8 @@
       <c r="C59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>46</v>
+      <c r="D59" s="9">
+        <v>45123</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>11</v>
@@ -2561,11 +2374,11 @@
       <c r="F59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2575,8 +2388,8 @@
       <c r="C60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>47</v>
+      <c r="D60" s="9">
+        <v>45129</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>9</v>
@@ -2584,11 +2397,11 @@
       <c r="F60" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -2598,8 +2411,8 @@
       <c r="C61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>48</v>
+      <c r="D61" s="9">
+        <v>45130</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>11</v>
@@ -2607,11 +2420,11 @@
       <c r="F61" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>7</v>
       </c>
@@ -2621,8 +2434,8 @@
       <c r="C62" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>49</v>
+      <c r="D62" s="9">
+        <v>45136</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>9</v>
@@ -2630,11 +2443,11 @@
       <c r="F62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
         <v>7</v>
       </c>
@@ -2644,8 +2457,8 @@
       <c r="C63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>50</v>
+      <c r="D63" s="9">
+        <v>45137</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>11</v>
@@ -2653,11 +2466,11 @@
       <c r="F63" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>7</v>
       </c>
@@ -2668,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="9">
-        <v>45054</v>
+        <v>45143</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>9</v>
@@ -2676,11 +2489,11 @@
       <c r="F64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="9">
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>11</v>
@@ -2699,11 +2512,11 @@
       <c r="F65" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="9">
-        <v>45268</v>
+        <v>45150</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>9</v>
@@ -2722,11 +2535,11 @@
       <c r="F66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>7</v>
       </c>
@@ -2736,8 +2549,8 @@
       <c r="C67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>51</v>
+      <c r="D67" s="9">
+        <v>45151</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>11</v>
@@ -2745,11 +2558,11 @@
       <c r="F67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>7</v>
       </c>
@@ -2759,8 +2572,8 @@
       <c r="C68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>52</v>
+      <c r="D68" s="9">
+        <v>45157</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>9</v>
@@ -2768,11 +2581,11 @@
       <c r="F68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G68" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>7</v>
       </c>
@@ -2782,8 +2595,8 @@
       <c r="C69" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>53</v>
+      <c r="D69" s="9">
+        <v>45158</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>11</v>
@@ -2791,11 +2604,11 @@
       <c r="F69" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
@@ -2805,8 +2618,8 @@
       <c r="C70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>54</v>
+      <c r="D70" s="9">
+        <v>45164</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>9</v>
@@ -2814,11 +2627,11 @@
       <c r="F70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
@@ -2828,8 +2641,8 @@
       <c r="C71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>55</v>
+      <c r="D71" s="9">
+        <v>45165</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>11</v>
@@ -2837,11 +2650,11 @@
       <c r="F71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="9">
-        <v>44966</v>
+        <v>45171</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>9</v>
@@ -2860,11 +2673,11 @@
       <c r="F72" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="9">
-        <v>44994</v>
+        <v>45172</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>11</v>
@@ -2883,11 +2696,11 @@
       <c r="F73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G73" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>7</v>
       </c>
@@ -2906,11 +2719,11 @@
       <c r="F74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="9">
-        <v>45208</v>
+        <v>45179</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>11</v>
@@ -2929,11 +2742,11 @@
       <c r="F75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G75" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -2943,8 +2756,8 @@
       <c r="C76" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>56</v>
+      <c r="D76" s="9">
+        <v>45185</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>9</v>
@@ -2952,11 +2765,11 @@
       <c r="F76" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G76" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>7</v>
       </c>
@@ -2966,8 +2779,8 @@
       <c r="C77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>57</v>
+      <c r="D77" s="9">
+        <v>45186</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>11</v>
@@ -2975,11 +2788,11 @@
       <c r="F77" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>7</v>
       </c>
@@ -2989,8 +2802,8 @@
       <c r="C78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>58</v>
+      <c r="D78" s="9">
+        <v>45192</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>9</v>
@@ -2998,11 +2811,11 @@
       <c r="F78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>7</v>
       </c>
@@ -3012,8 +2825,8 @@
       <c r="C79" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>59</v>
+      <c r="D79" s="9">
+        <v>45193</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>11</v>
@@ -3021,11 +2834,11 @@
       <c r="F79" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G79" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>7</v>
       </c>
@@ -3035,8 +2848,8 @@
       <c r="C80" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>60</v>
+      <c r="D80" s="9">
+        <v>45199</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>9</v>
@@ -3044,11 +2857,11 @@
       <c r="F80" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G80" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
@@ -3059,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="9">
-        <v>44936</v>
+        <v>45200</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>11</v>
@@ -3067,11 +2880,11 @@
       <c r="F81" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="9">
-        <v>45117</v>
+        <v>45206</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>9</v>
@@ -3090,11 +2903,11 @@
       <c r="F82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +2918,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="9">
-        <v>45148</v>
+        <v>45207</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>11</v>
@@ -3113,11 +2926,11 @@
       <c r="F83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G83" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>7</v>
       </c>
@@ -3127,8 +2940,8 @@
       <c r="C84" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>61</v>
+      <c r="D84" s="9">
+        <v>45213</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>9</v>
@@ -3136,11 +2949,11 @@
       <c r="F84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>7</v>
       </c>
@@ -3150,8 +2963,8 @@
       <c r="C85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>62</v>
+      <c r="D85" s="9">
+        <v>45214</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>11</v>
@@ -3159,11 +2972,11 @@
       <c r="F85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G85" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>7</v>
       </c>
@@ -3173,8 +2986,8 @@
       <c r="C86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>63</v>
+      <c r="D86" s="9">
+        <v>45220</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>9</v>
@@ -3182,11 +2995,11 @@
       <c r="F86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G86" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>7</v>
       </c>
@@ -3196,8 +3009,8 @@
       <c r="C87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>64</v>
+      <c r="D87" s="9">
+        <v>45221</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>11</v>
@@ -3205,11 +3018,11 @@
       <c r="F87" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G87" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G87" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -3219,8 +3032,8 @@
       <c r="C88" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>65</v>
+      <c r="D88" s="9">
+        <v>45227</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>9</v>
@@ -3228,11 +3041,11 @@
       <c r="F88" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G88" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G88" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -3242,8 +3055,8 @@
       <c r="C89" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>66</v>
+      <c r="D89" s="9">
+        <v>45228</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>11</v>
@@ -3251,11 +3064,11 @@
       <c r="F89" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G89" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G89" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>7</v>
       </c>
@@ -3266,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="9">
-        <v>45027</v>
+        <v>45234</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>9</v>
@@ -3274,11 +3087,11 @@
       <c r="F90" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G90" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3102,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="9">
-        <v>45057</v>
+        <v>45235</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>11</v>
@@ -3297,11 +3110,11 @@
       <c r="F91" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G91" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G91" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>7</v>
       </c>
@@ -3320,11 +3133,11 @@
       <c r="F92" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
@@ -3335,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="9">
-        <v>45271</v>
+        <v>45242</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>11</v>
@@ -3343,11 +3156,11 @@
       <c r="F93" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G93" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>7</v>
       </c>
@@ -3357,8 +3170,8 @@
       <c r="C94" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>67</v>
+      <c r="D94" s="9">
+        <v>45248</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>9</v>
@@ -3366,11 +3179,11 @@
       <c r="F94" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G94" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G94" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>7</v>
       </c>
@@ -3380,8 +3193,8 @@
       <c r="C95" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>68</v>
+      <c r="D95" s="9">
+        <v>45249</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>11</v>
@@ -3389,11 +3202,11 @@
       <c r="F95" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G95" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G95" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>7</v>
       </c>
@@ -3403,8 +3216,8 @@
       <c r="C96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>69</v>
+      <c r="D96" s="9">
+        <v>45255</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>9</v>
@@ -3412,11 +3225,11 @@
       <c r="F96" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G96" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>7</v>
       </c>
@@ -3426,8 +3239,8 @@
       <c r="C97" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>70</v>
+      <c r="D97" s="9">
+        <v>45256</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>11</v>
@@ -3435,11 +3248,11 @@
       <c r="F97" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G97" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G97" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>7</v>
       </c>
@@ -3450,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="9">
-        <v>44969</v>
+        <v>45262</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>9</v>
@@ -3458,11 +3271,11 @@
       <c r="F98" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G98" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
         <v>7</v>
       </c>
@@ -3473,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="9">
-        <v>44997</v>
+        <v>45263</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>11</v>
@@ -3481,11 +3294,11 @@
       <c r="F99" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G99" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
         <v>7</v>
       </c>
@@ -3496,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="9">
-        <v>45181</v>
+        <v>45269</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>9</v>
@@ -3504,11 +3317,11 @@
       <c r="F100" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G100" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G100" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="9">
-        <v>45211</v>
+        <v>45270</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>11</v>
@@ -3527,11 +3340,11 @@
       <c r="F101" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G101" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G101" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>7</v>
       </c>
@@ -3541,8 +3354,8 @@
       <c r="C102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>71</v>
+      <c r="D102" s="9">
+        <v>45276</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>9</v>
@@ -3550,11 +3363,11 @@
       <c r="F102" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G102" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G102" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>7</v>
       </c>
@@ -3564,8 +3377,8 @@
       <c r="C103" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>72</v>
+      <c r="D103" s="9">
+        <v>45277</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>11</v>
@@ -3573,11 +3386,11 @@
       <c r="F103" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G103" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G103" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>7</v>
       </c>
@@ -3587,8 +3400,8 @@
       <c r="C104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>73</v>
+      <c r="D104" s="9">
+        <v>45283</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>9</v>
@@ -3596,11 +3409,11 @@
       <c r="F104" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G104" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>7</v>
       </c>
@@ -3610,8 +3423,8 @@
       <c r="C105" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>74</v>
+      <c r="D105" s="9">
+        <v>45284</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>11</v>
@@ -3619,11 +3432,11 @@
       <c r="F105" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G105" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G105" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>7</v>
       </c>
@@ -3633,8 +3446,8 @@
       <c r="C106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>75</v>
+      <c r="D106" s="9">
+        <v>45290</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>9</v>
@@ -3642,11 +3455,11 @@
       <c r="F106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G106" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G106" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>7</v>
       </c>
@@ -3656,8 +3469,8 @@
       <c r="C107" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>76</v>
+      <c r="D107" s="9">
+        <v>45291</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>11</v>
@@ -3665,12 +3478,12 @@
       <c r="F107" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G107" t="s">
-        <v>77</v>
+      <c r="G107" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G397">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G397">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8481A-0E2B-4457-AA48-55D32741F1C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F51FDA-4AF6-4D5E-AF63-F3700481F0D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{33038397-233E-4B60-B19D-1D8B5E63155B}"/>
   </bookViews>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="15">
-  <si>
-    <t>langCode</t>
-  </si>
   <si>
     <t>SLE</t>
   </si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>lang_code</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,45 +453,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2000001</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>44927</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -499,22 +499,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2000002</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>44933</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -522,22 +522,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2000003</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>44934</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -545,22 +545,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2000004</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>44940</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -568,22 +568,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2000005</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>44941</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -591,22 +591,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2000006</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>44947</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -614,22 +614,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>2000007</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>44948</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -637,22 +637,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2000008</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>44954</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -660,22 +660,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2000009</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>44955</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -683,22 +683,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2000010</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>44961</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -706,22 +706,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>2000011</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>44962</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -729,22 +729,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>2000012</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>44968</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -752,22 +752,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>2000013</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>44969</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -775,22 +775,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>2000014</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>44975</v>
       </c>
       <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
         <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -798,22 +798,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>2000015</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>44976</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -821,22 +821,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>2000016</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>44982</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -844,22 +844,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>2000017</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>44983</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -867,22 +867,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>2000018</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>44989</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -890,22 +890,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>2000019</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>44990</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -913,22 +913,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>2000020</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>44993</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -936,22 +936,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>2000021</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>44996</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -959,22 +959,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>2000022</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>44997</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -982,22 +982,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>2000023</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>45003</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1005,22 +1005,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>2000024</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>45004</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -1028,22 +1028,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>2000025</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>45010</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>2000026</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>45011</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1074,22 +1074,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>2000027</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>45017</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -1097,22 +1097,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>2000028</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>45018</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1120,22 +1120,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>2000029</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>45024</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1143,22 +1143,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <v>2000030</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>45025</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -1166,22 +1166,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>2000031</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>45031</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -1189,22 +1189,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>2000032</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
         <v>45032</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -1212,22 +1212,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>2000033</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>45038</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -1235,22 +1235,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>2000034</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <v>45039</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -1258,22 +1258,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
         <v>2000035</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>45045</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -1281,22 +1281,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>2000036</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
         <v>45046</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -1304,22 +1304,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>2000037</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
         <v>45052</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -1327,22 +1327,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>2000038</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
         <v>45053</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -1350,22 +1350,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
         <v>2000039</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
         <v>45059</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -1373,22 +1373,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>2000040</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <v>45060</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -1396,22 +1396,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
         <v>2000041</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>45066</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -1419,22 +1419,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>2000042</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>45067</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -1442,22 +1442,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>2000043</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>45073</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -1465,22 +1465,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>2000044</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>45074</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -1488,22 +1488,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>2000045</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
         <v>45080</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -1511,22 +1511,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <v>2000046</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>45081</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -1534,22 +1534,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
         <v>2000047</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
         <v>45087</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -1557,22 +1557,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>2000048</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
         <v>45088</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -1580,22 +1580,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>2000049</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
         <v>45094</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -1603,22 +1603,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
         <v>2000050</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1">
         <v>45095</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -1626,22 +1626,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>2000051</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>45101</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <v>2000052</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
         <v>45102</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -1672,22 +1672,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
         <v>2000053</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>45108</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -1695,22 +1695,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55">
         <v>2000054</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>45109</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -1718,22 +1718,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
         <v>2000055</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>45115</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -1741,22 +1741,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <v>2000056</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
         <v>45116</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -1764,22 +1764,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
         <v>2000057</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
         <v>45122</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -1787,22 +1787,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>2000058</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
         <v>45123</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -1810,22 +1810,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>2000059</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
         <v>45129</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -1833,22 +1833,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <v>2000060</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
         <v>45130</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -1856,22 +1856,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>2000061</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
         <v>45136</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -1879,22 +1879,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63">
         <v>2000062</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
         <v>45137</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -1902,22 +1902,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
         <v>2000063</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>45143</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -1925,22 +1925,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
         <v>2000064</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
         <v>45144</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -1948,22 +1948,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66">
         <v>2000065</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <v>45150</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -1971,22 +1971,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <v>2000066</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
         <v>45151</v>
       </c>
       <c r="E67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -1994,22 +1994,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
         <v>2000067</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1">
         <v>45157</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -2017,22 +2017,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
         <v>2000068</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
         <v>45158</v>
       </c>
       <c r="E69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -2040,22 +2040,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70">
         <v>2000069</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="1">
         <v>45164</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -2063,22 +2063,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71">
         <v>2000070</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1">
         <v>45165</v>
       </c>
       <c r="E71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -2086,22 +2086,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72">
         <v>2000071</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
         <v>45171</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -2109,22 +2109,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <v>2000072</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
         <v>45172</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -2132,22 +2132,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <v>2000073</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
         <v>45178</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -2155,22 +2155,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>2000074</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
         <v>45179</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -2178,22 +2178,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76">
         <v>2000075</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
         <v>45185</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -2201,22 +2201,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77">
         <v>2000076</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>45186</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -2224,22 +2224,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78">
         <v>2000077</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>45192</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -2247,22 +2247,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79">
         <v>2000078</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>45193</v>
       </c>
       <c r="E79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -2270,22 +2270,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80">
         <v>2000079</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>45199</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -2293,22 +2293,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81">
         <v>2000080</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
         <v>45200</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -2316,22 +2316,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82">
         <v>2000081</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
         <v>45206</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2339,22 +2339,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83">
         <v>2000082</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
         <v>45207</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -2362,22 +2362,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84">
         <v>2000083</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
         <v>45213</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -2385,22 +2385,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <v>2000084</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
         <v>45214</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -2408,22 +2408,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <v>2000085</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
         <v>45220</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -2431,22 +2431,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87">
         <v>2000086</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
         <v>45221</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -2454,22 +2454,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88">
         <v>2000087</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
         <v>45227</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -2477,22 +2477,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89">
         <v>2000088</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
         <v>45228</v>
       </c>
       <c r="E89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -2500,22 +2500,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>2000089</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
         <v>45234</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -2523,22 +2523,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91">
         <v>2000090</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
         <v>45235</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -2546,22 +2546,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92">
         <v>2000091</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>45241</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -2569,22 +2569,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93">
         <v>2000092</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>45242</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -2592,22 +2592,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94">
         <v>2000093</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>45248</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -2615,22 +2615,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95">
         <v>2000094</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>45249</v>
       </c>
       <c r="E95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -2638,22 +2638,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96">
         <v>2000095</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>45255</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -2661,22 +2661,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97">
         <v>2000096</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
         <v>45256</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -2684,22 +2684,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98">
         <v>2000097</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
         <v>45262</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -2707,22 +2707,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99">
         <v>2000098</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="1">
         <v>45263</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -2730,22 +2730,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100">
         <v>2000099</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
         <v>45269</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -2753,22 +2753,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101">
         <v>2000100</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
         <v>45270</v>
       </c>
       <c r="E101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -2776,22 +2776,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102">
         <v>2000101</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>45276</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -2799,22 +2799,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103">
         <v>2000102</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
         <v>45277</v>
       </c>
       <c r="E103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -2822,22 +2822,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104">
         <v>2000103</v>
       </c>
       <c r="C104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
         <v>45283</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
@@ -2845,22 +2845,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105">
         <v>2000104</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>45284</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
@@ -2868,22 +2868,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106">
         <v>2000105</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
         <v>45290</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -2891,22 +2891,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107">
         <v>2000106</v>
       </c>
       <c r="C107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="1">
         <v>45291</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
